--- a/Essential Statistics for Data Analysis using Excel/Module1Homework-NEW/80-20RuleandParetoHW-NEW.xlsx
+++ b/Essential Statistics for Data Analysis using Excel/Module1Homework-NEW/80-20RuleandParetoHW-NEW.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmunson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramneekm\Documents\datasc\Essential Statistics for Data Analysis using Excel\Module1Homework-NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="9683"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Question1" sheetId="1" r:id="rId1"/>
     <sheet name="Question2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Question1!$E$7:$E$106</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Question1!$F$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Question1!$F$7:$F$106</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Question2!$K$14:$K$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Question2!$L$14:$L$18</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Question2!$L$14:$L$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Question2!$K$14:$K$18</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Question2!$L$14:$L$18</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="122">
   <si>
     <t>Customer Code</t>
   </si>
@@ -382,6 +395,15 @@
   </si>
   <si>
     <t>Weather</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Cause</t>
   </si>
 </sst>
 </file>
@@ -426,12 +448,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,6 +474,2897 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{4F5F5A41-75EE-48A9-A811-9AF803CF423B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Revenue</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{C7854AF7-9FAC-425B-9ED3-536A2CBE53C4}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{83C7058D-3613-472E-921D-9DFF050941BC}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{E433336C-0B91-429D-A443-02067C144A70}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65682022-0EF6-4580-8095-D29ED81299AD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4543425" y="133350"/>
+              <a:ext cx="5486400" cy="3352800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2FB843-4608-4E03-8919-67B92D1D97D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3705225" y="3133725"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ramneek singh" refreshedDate="42899.247856712966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="482">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="E12:E494" sheet="Question2"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Cause" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Subway"/>
+        <s v="Traffic"/>
+        <s v="Emergency"/>
+        <s v="Child care"/>
+        <s v="Weather"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="482">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H14:I20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Cause" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,17 +3666,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
@@ -766,7 +3686,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>103</v>
       </c>
@@ -774,7 +3694,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>104</v>
       </c>
@@ -782,7 +3702,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>105</v>
       </c>
@@ -790,7 +3710,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
@@ -798,7 +3718,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>0</v>
       </c>
@@ -806,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -815,7 +3735,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -825,7 +3745,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>4</v>
       </c>
@@ -833,7 +3753,7 @@
         <v>117.84994803024651</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>5</v>
       </c>
@@ -842,7 +3762,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>6</v>
       </c>
@@ -851,7 +3771,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>7</v>
       </c>
@@ -860,7 +3780,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>8</v>
       </c>
@@ -868,7 +3788,7 @@
         <v>18113.913521228264</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>9</v>
       </c>
@@ -876,7 +3796,7 @@
         <v>23.224577197114613</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>10</v>
       </c>
@@ -884,7 +3804,7 @@
         <v>244.76600859774706</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>11</v>
       </c>
@@ -892,7 +3812,7 @@
         <v>21308.380726173251</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>12</v>
       </c>
@@ -900,7 +3820,7 @@
         <v>9459.314357740659</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>13</v>
       </c>
@@ -908,7 +3828,7 @@
         <v>1145.1532391074049</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>14</v>
       </c>
@@ -916,7 +3836,7 @@
         <v>40804.031999999999</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>15</v>
       </c>
@@ -924,7 +3844,7 @@
         <v>48.235804571157146</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>16</v>
       </c>
@@ -932,7 +3852,7 @@
         <v>6302.5204528392151</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>17</v>
       </c>
@@ -940,7 +3860,7 @@
         <v>1055.8312864570273</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>18</v>
       </c>
@@ -948,7 +3868,7 @@
         <v>14197.276912960984</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>19</v>
       </c>
@@ -956,7 +3876,7 @@
         <v>18.202899846433485</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>20</v>
       </c>
@@ -964,7 +3884,7 @@
         <v>37621.317503999999</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>21</v>
       </c>
@@ -972,7 +3892,7 @@
         <v>61.542730904343571</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>22</v>
       </c>
@@ -980,7 +3900,7 @@
         <v>4554.4710715675837</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>23</v>
       </c>
@@ -988,7 +3908,7 @@
         <v>338.70953423712598</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -996,7 +3916,7 @@
         <v>41.004485693067558</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>25</v>
       </c>
@@ -1004,7 +3924,7 @@
         <v>973.47644611337921</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>26</v>
       </c>
@@ -1012,7 +3932,7 @@
         <v>108.65765208388729</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>27</v>
       </c>
@@ -1020,7 +3940,7 @@
         <v>23111.042002357102</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +3948,7 @@
         <v>127.81990024972505</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>29</v>
       </c>
@@ -1036,7 +3956,7 @@
         <v>78.520670710014556</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>30</v>
       </c>
@@ -1044,7 +3964,7 @@
         <v>16.783073658411674</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>31</v>
       </c>
@@ -1052,7 +3972,7 @@
         <v>11127.505467389879</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>32</v>
       </c>
@@ -1060,7 +3980,7 @@
         <v>85.163417255981074</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>33</v>
       </c>
@@ -1068,7 +3988,7 @@
         <v>5357.6717966313718</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>34</v>
       </c>
@@ -1076,7 +3996,7 @@
         <v>468.70947988399223</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>35</v>
       </c>
@@ -1084,7 +4004,7 @@
         <v>32.138391153065001</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>36</v>
       </c>
@@ -1092,7 +4012,7 @@
         <v>52.316490858088009</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>37</v>
       </c>
@@ -1100,7 +4020,7 @@
         <v>34686.854738688002</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +4028,7 @@
         <v>897.54528331653569</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>39</v>
       </c>
@@ -1116,7 +4036,7 @@
         <v>2378.4023010104565</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>40</v>
       </c>
@@ -1124,7 +4044,7 @@
         <v>551.36842933638582</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>41</v>
       </c>
@@ -1132,7 +4052,7 @@
         <v>3569.6917134630667</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +4060,7 @@
         <v>21.413060175739673</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>43</v>
       </c>
@@ -1148,7 +4068,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>44</v>
       </c>
@@ -1156,7 +4076,7 @@
         <v>163.08188067402142</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>45</v>
       </c>
@@ -1164,7 +4084,7 @@
         <v>1347.1059790648981</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>46</v>
       </c>
@@ -1172,7 +4092,7 @@
         <v>44.473411814606891</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>47</v>
       </c>
@@ -1180,7 +4100,7 @@
         <v>1718.7353151106458</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>48</v>
       </c>
@@ -1188,7 +4108,7 @@
         <v>3871.682986402458</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>49</v>
       </c>
@@ -1196,7 +4116,7 @@
         <v>29486.740223682857</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>50</v>
       </c>
@@ -1204,7 +4124,7 @@
         <v>27186.774486235594</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>51</v>
       </c>
@@ -1212,7 +4132,7 @@
         <v>92.368131514079252</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>52</v>
       </c>
@@ -1220,7 +4140,7 @@
         <v>25066.206076309219</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>53</v>
       </c>
@@ -1228,7 +4148,7 @@
         <v>598.013480842067</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>54</v>
       </c>
@@ -1236,7 +4156,7 @@
         <v>398.4424294977037</v>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>55</v>
       </c>
@@ -1244,7 +4164,7 @@
         <v>1584.6739605320156</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>56</v>
       </c>
@@ -1252,7 +4172,7 @@
         <v>4199.2223279853124</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>57</v>
       </c>
@@ -1260,7 +4180,7 @@
         <v>29.631596643125931</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>58</v>
       </c>
@@ -1268,7 +4188,7 @@
         <v>66.749165839852026</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>59</v>
       </c>
@@ -1276,7 +4196,7 @@
         <v>1242.0317126978362</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>60</v>
       </c>
@@ -1284,7 +4204,7 @@
         <v>2579.6120401414928</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>61</v>
       </c>
@@ -1292,7 +4212,7 @@
         <v>432.15014045304088</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>62</v>
       </c>
@@ -1300,7 +4220,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>63</v>
       </c>
@@ -1308,7 +4228,7 @@
         <v>8721.4878378368885</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>64</v>
       </c>
@@ -1316,7 +4236,7 @@
         <v>762.9888846228539</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>65</v>
       </c>
@@ -1324,7 +4244,7 @@
         <v>703.47575162227133</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>66</v>
       </c>
@@ -1332,7 +4252,7 @@
         <v>27.320332104962109</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>67</v>
       </c>
@@ -1340,7 +4260,7 @@
         <v>191.84207757588828</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>68</v>
       </c>
@@ -1348,7 +4268,7 @@
         <v>3291.2557598129474</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>69</v>
       </c>
@@ -1356,7 +4276,7 @@
         <v>208.07166765280724</v>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>70</v>
       </c>
@@ -1364,7 +4284,7 @@
         <v>72.396058394633428</v>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>71</v>
       </c>
@@ -1372,7 +4292,7 @@
         <v>2797.8438613248295</v>
       </c>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>72</v>
       </c>
@@ -1380,7 +4300,7 @@
         <v>7413.9972671397345</v>
       </c>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>73</v>
       </c>
@@ -1388,7 +4308,7 @@
         <v>12068.877947277526</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>74</v>
       </c>
@@ -1396,7 +4316,7 @@
         <v>15.473993913055564</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>75</v>
       </c>
@@ -1404,7 +4324,7 @@
         <v>3034.5378105475374</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>76</v>
       </c>
@@ -1412,7 +4332,7 @@
         <v>15398.348061779809</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>77</v>
       </c>
@@ -1420,7 +4340,7 @@
         <v>225.67425992712279</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>78</v>
       </c>
@@ -1428,7 +4348,7 @@
         <v>138.63329745089484</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>79</v>
       </c>
@@ -1436,7 +4356,7 @@
         <v>4939.7733964941253</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>80</v>
       </c>
@@ -1444,7 +4364,7 @@
         <v>19646.327029531738</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>81</v>
       </c>
@@ -1452,7 +4372,7 @@
         <v>176.87839552496899</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>82</v>
       </c>
@@ -1460,7 +4380,7 @@
         <v>827.5367512178459</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>83</v>
       </c>
@@ -1468,7 +4388,7 @@
         <v>100.18235522134408</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>84</v>
       </c>
@@ -1476,7 +4396,7 @@
         <v>1864.1380858033035</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>85</v>
       </c>
@@ -1484,7 +4404,7 @@
         <v>2192.8869215316408</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>86</v>
       </c>
@@ -1492,7 +4412,7 @@
         <v>56.742397893804778</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>87</v>
       </c>
@@ -1500,7 +4420,7 @@
         <v>150.36149398144775</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>88</v>
       </c>
@@ -1508,7 +4428,7 @@
         <v>25.189346200775066</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>89</v>
       </c>
@@ -1516,7 +4436,7 @@
         <v>16701.028266572459</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>90</v>
       </c>
@@ -1524,7 +4444,7 @@
         <v>265.47289435764321</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>91</v>
       </c>
@@ -1532,7 +4452,7 @@
         <v>508.36169184814776</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
         <v>92</v>
       </c>
@@ -1540,7 +4460,7 @@
         <v>6835.7054803028359</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>93</v>
       </c>
@@ -1548,7 +4468,7 @@
         <v>10259.560040933469</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>94</v>
       </c>
@@ -1556,7 +4476,7 @@
         <v>8041.2117864856118</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>95</v>
       </c>
@@ -1564,7 +4484,7 @@
         <v>19.742841482031981</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>96</v>
       </c>
@@ -1572,7 +4492,7 @@
         <v>13089.889313750027</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>97</v>
       </c>
@@ -1580,7 +4500,7 @@
         <v>312.29019056663014</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>98</v>
       </c>
@@ -1592,7 +4512,7 @@
         <v>0.92268083459058836</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>99</v>
       </c>
@@ -1600,7 +4520,7 @@
         <v>2021.8417416521729</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>100</v>
       </c>
@@ -1608,7 +4528,7 @@
         <v>37.806135809008289</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
         <v>101</v>
       </c>
@@ -1621,20 +4541,25 @@
     <sortCondition ref="G7:G106"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E494"/>
+  <dimension ref="B4:L494"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>107</v>
       </c>
@@ -1642,7 +4567,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>108</v>
       </c>
@@ -1650,7 +4575,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>109</v>
       </c>
@@ -1658,7 +4583,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>110</v>
       </c>
@@ -1666,7 +4591,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>111</v>
       </c>
@@ -1674,7 +4599,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>112</v>
       </c>
@@ -1682,13 +4607,13 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1696,7 +4621,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1704,2421 +4629,2494 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="7">
+        <v>65</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="H16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="7">
+        <v>29</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="H17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="7">
+        <v>154</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="H18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="7">
+        <v>185</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="H19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="H20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="7">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E78" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E79" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="313" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="314" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="315" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="316" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="317" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="318" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="319" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="320" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="322" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="323" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="324" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="325" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="326" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="327" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="328" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="329" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="330" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="331" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="332" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="333" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="334" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="335" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="336" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="344" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="345" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="346" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="348" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="349" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="350" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="351" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="352" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="386" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="387" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="388" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="389" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="390" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="391" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="392" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="394" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="395" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="396" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="397" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="398" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="399" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="400" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="407" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="408" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="409" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="410" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="411" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="412" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="413" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="414" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="415" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="416" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="439" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="440" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="441" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="442" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="443" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="444" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="445" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="446" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="447" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="448" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="456" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="457" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="459" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="460" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="461" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="462" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="463" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="464" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E464" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="465" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E465" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="466" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E466" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="467" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E467" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="468" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E468" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="469" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E469" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="470" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E470" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="471" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E471" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="472" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E472" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="473" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E473" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="474" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E474" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="475" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E475" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="476" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E476" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="477" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E477" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="478" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E478" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="479" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E479" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="480" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E480" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="481" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E481" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="482" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E482" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="483" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E483" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="484" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E484" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="485" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E485" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="486" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E486" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="487" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E487" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="488" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E488" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="489" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E489" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="490" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E490" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="491" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E491" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="492" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E492" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="493" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E493" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="494" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E494" s="3" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>